--- a/ZoningAtlas/raw_data/Excel_workbooks/Windsor_Plymouth_features.xlsx
+++ b/ZoningAtlas/raw_data/Excel_workbooks/Windsor_Plymouth_features.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ybird/ZoningAtlas/VT_Zoning_Atlas/ZoningAtlas/raw_data/districts_needs_to_join/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ybird/ZoningAtlas/VT_Zoning_Atlas/ZoningAtlas/raw_data/Excel_workbooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC39F208-6798-B145-BB45-7663B03A4DE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FF7E9A9-03C9-B94A-AF09-C1BDD5740C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" activeTab="1" xr2:uid="{FC763E2B-1BB8-D248-8DD1-F66FE797A262}"/>
   </bookViews>
@@ -460,7 +460,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -469,90 +469,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="61">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="50">
     <dxf>
       <fill>
         <patternFill>
@@ -1219,7 +1141,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G135" sqref="G135:G137"/>
+      <selection pane="bottomRight" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2870,253 +2792,248 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B34:B47 B48:C49">
-    <cfRule type="expression" dxfId="60" priority="227">
+    <cfRule type="expression" dxfId="49" priority="227">
       <formula>OR(B$12="", B$12="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B71:B89">
-    <cfRule type="expression" dxfId="59" priority="225">
+    <cfRule type="expression" dxfId="48" priority="225">
       <formula>OR(B$14="", B$14="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B92:B111">
-    <cfRule type="expression" dxfId="58" priority="224" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="224" stopIfTrue="1">
       <formula>OR(B$15="", B$15="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B115:B121">
-    <cfRule type="expression" dxfId="57" priority="223" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="223" stopIfTrue="1">
       <formula>OR(B$17="", B$17="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B127:B128 B130:B132">
-    <cfRule type="expression" dxfId="56" priority="222">
+    <cfRule type="expression" dxfId="45" priority="222">
       <formula>OR(B$16="", B$16="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B135:B136">
-    <cfRule type="expression" dxfId="55" priority="221" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="221" stopIfTrue="1">
       <formula>OR(B$18="Prohibited", B$18="")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21:C23 B24:B32">
-    <cfRule type="expression" dxfId="54" priority="228" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="228" stopIfTrue="1">
       <formula>OR(B$11="", B$11="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B51:C52 B53:B66 B67:C69">
-    <cfRule type="expression" dxfId="53" priority="226" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="226" stopIfTrue="1">
       <formula>OR(B$13="", B$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B114:G114 F115:F121">
-    <cfRule type="expression" dxfId="52" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="24" stopIfTrue="1">
       <formula>OR(B$17="", B$17="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B123:G126 F127:F128 F130:F132 B129:G129">
-    <cfRule type="expression" dxfId="51" priority="23">
+  <conditionalFormatting sqref="B123:G126 F127:F128 B129:G129 F130:F132">
+    <cfRule type="expression" dxfId="40" priority="23">
       <formula>OR(B$16="", B$16="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B134:G134 F135:F136 B137:G137">
-    <cfRule type="expression" dxfId="50" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="22" stopIfTrue="1">
       <formula>OR(B$18="Prohibited", B$18="")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36:C38">
-    <cfRule type="expression" dxfId="49" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="50" stopIfTrue="1">
       <formula>OR(C$11="", C$11="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C53:C55">
-    <cfRule type="expression" dxfId="48" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="48" stopIfTrue="1">
       <formula>OR(C$11="", C$11="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C65:C66">
-    <cfRule type="expression" dxfId="47" priority="49">
+    <cfRule type="expression" dxfId="36" priority="49">
       <formula>OR(C$12="", C$12="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71:C72">
-    <cfRule type="expression" dxfId="46" priority="220" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="220" stopIfTrue="1">
       <formula>OR(C$13="", C$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C73:C75">
-    <cfRule type="expression" dxfId="45" priority="45" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="45" stopIfTrue="1">
       <formula>OR(C$11="", C$11="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C85:C86">
-    <cfRule type="expression" dxfId="44" priority="46">
+    <cfRule type="expression" dxfId="33" priority="46">
       <formula>OR(C$12="", C$12="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C87:C89">
-    <cfRule type="expression" dxfId="43" priority="47" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="47" stopIfTrue="1">
       <formula>OR(C$13="", C$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C92:C110">
-    <cfRule type="expression" dxfId="42" priority="218" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="218" stopIfTrue="1">
       <formula>OR(C$13="", C$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C111">
-    <cfRule type="expression" dxfId="41" priority="219">
+    <cfRule type="expression" dxfId="30" priority="219">
       <formula>OR(C$14="", C$14="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C115:C121">
-    <cfRule type="expression" dxfId="40" priority="211" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="211" stopIfTrue="1">
       <formula>OR(C$13="", C$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C127:C128">
-    <cfRule type="expression" dxfId="38" priority="209" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="209" stopIfTrue="1">
       <formula>OR(C$13="", C$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C130:C132">
-    <cfRule type="expression" dxfId="37" priority="206" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="206" stopIfTrue="1">
       <formula>OR(C$13="", C$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C135:C136">
-    <cfRule type="expression" dxfId="36" priority="204" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="204" stopIfTrue="1">
       <formula>OR(C$13="", C$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D71:D89">
-    <cfRule type="expression" dxfId="35" priority="38">
+    <cfRule type="expression" dxfId="25" priority="38">
       <formula>OR(D$14="", D$14="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D92:D111">
-    <cfRule type="expression" dxfId="34" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="37" stopIfTrue="1">
       <formula>OR(D$15="", D$15="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D115:D121">
-    <cfRule type="expression" dxfId="33" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="36" stopIfTrue="1">
       <formula>OR(D$17="", D$17="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D127:D128 D130:D132">
-    <cfRule type="expression" dxfId="32" priority="35">
+    <cfRule type="expression" dxfId="22" priority="35">
       <formula>OR(D$16="", D$16="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D135:D136">
-    <cfRule type="expression" dxfId="31" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="34" stopIfTrue="1">
       <formula>OR(D$18="Prohibited", D$18="")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34:E49">
-    <cfRule type="expression" dxfId="30" priority="40">
+    <cfRule type="expression" dxfId="20" priority="40">
       <formula>OR(D$12="", D$12="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:G32">
-    <cfRule type="expression" dxfId="29" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="14" stopIfTrue="1">
       <formula>OR(D$11="", D$11="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51:G69">
-    <cfRule type="expression" dxfId="28" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="9" stopIfTrue="1">
       <formula>OR(D$13="", D$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E71:E89">
-    <cfRule type="expression" dxfId="27" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="33" stopIfTrue="1">
       <formula>OR(E$13="", E$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E92:E110">
-    <cfRule type="expression" dxfId="26" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="31" stopIfTrue="1">
       <formula>OR(E$13="", E$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E111">
-    <cfRule type="expression" dxfId="25" priority="32">
+    <cfRule type="expression" dxfId="15" priority="32">
       <formula>OR(E$14="", E$14="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="E115:E121">
+    <cfRule type="expression" dxfId="14" priority="8" stopIfTrue="1">
+      <formula>OR(E$13="", E$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E127:E128">
+    <cfRule type="expression" dxfId="13" priority="6" stopIfTrue="1">
+      <formula>OR(E$13="", E$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E130:E132">
+    <cfRule type="expression" dxfId="12" priority="5" stopIfTrue="1">
+      <formula>OR(E$13="", E$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E135:E136">
+    <cfRule type="expression" dxfId="11" priority="2" stopIfTrue="1">
+      <formula>OR(E$13="", E$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="F71:F89 B90:G90">
-    <cfRule type="expression" dxfId="19" priority="12">
+    <cfRule type="expression" dxfId="10" priority="12">
       <formula>OR(B$14="", B$14="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F92:F111">
-    <cfRule type="expression" dxfId="18" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="25" stopIfTrue="1">
       <formula>OR(F$15="", F$15="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34:G37 F38:F40 F41:G49">
-    <cfRule type="expression" dxfId="17" priority="13">
+    <cfRule type="expression" dxfId="8" priority="13">
       <formula>OR(F$12="", F$12="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G38:G40">
-    <cfRule type="expression" dxfId="16" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="10" stopIfTrue="1">
       <formula>OR(G$13="", G$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G71:G89">
-    <cfRule type="expression" dxfId="15" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="11" stopIfTrue="1">
       <formula>OR(G$13="", G$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G92:G110">
-    <cfRule type="expression" dxfId="14" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="20" stopIfTrue="1">
       <formula>OR(G$13="", G$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G111">
-    <cfRule type="expression" dxfId="13" priority="21">
+    <cfRule type="expression" dxfId="4" priority="21">
       <formula>OR(G$14="", G$14="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G115">
-    <cfRule type="expression" dxfId="12" priority="18" stopIfTrue="1">
+  <conditionalFormatting sqref="G115:G122">
+    <cfRule type="expression" dxfId="3" priority="7" stopIfTrue="1">
       <formula>OR(G$13="", G$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E115:E121">
-    <cfRule type="expression" dxfId="7" priority="8" stopIfTrue="1">
-      <formula>OR(E$13="", E$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G116:G122">
-    <cfRule type="expression" dxfId="6" priority="7" stopIfTrue="1">
+  <conditionalFormatting sqref="G127:G128">
+    <cfRule type="expression" dxfId="2" priority="4" stopIfTrue="1">
       <formula>OR(G$13="", G$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E127:E128">
-    <cfRule type="expression" dxfId="5" priority="6" stopIfTrue="1">
-      <formula>OR(E$13="", E$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E130:E132">
-    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
-      <formula>OR(E$13="", E$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G127:G128">
-    <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
+  <conditionalFormatting sqref="G130:G132">
+    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
       <formula>OR(G$13="", G$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G130:G132">
-    <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
-      <formula>OR(G$13="", G$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E135:E136">
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
-      <formula>OR(E$13="", E$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G135:G136">
@@ -3241,7 +3158,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3290,7 +3207,7 @@
       <c r="A6" t="s">
         <v>75</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6">
         <v>64</v>
       </c>
     </row>
@@ -3298,19 +3215,17 @@
       <c r="A7" t="s">
         <v>76</v>
       </c>
-      <c r="B7" s="6"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>77</v>
       </c>
-      <c r="B8" s="6"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>78</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" t="s">
         <v>115</v>
       </c>
     </row>
@@ -3318,13 +3233,12 @@
       <c r="A10" t="s">
         <v>79</v>
       </c>
-      <c r="B10" s="6"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>80</v>
       </c>
-      <c r="B11" s="6" t="str">
+      <c r="B11" t="str">
         <f>Districts!B1</f>
         <v>CHH</v>
       </c>
@@ -3341,7 +3255,7 @@
       <c r="A12" t="s">
         <v>116</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="6">
         <v>41465</v>
       </c>
     </row>
@@ -3349,7 +3263,7 @@
       <c r="A13" t="s">
         <v>117</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="6">
         <v>41414</v>
       </c>
     </row>
